--- a/data/trans_orig/IP07A16-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A16-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20CFB131-2BD8-4DD2-A7B5-C53713D0DE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C32DAA03-C4B0-4EAE-8BAD-89D7FFE21F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{5B97CF86-1F75-4CF8-AFF1-884336A6C62E}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{993B231B-67DE-4E8D-BFA8-6DB66C71F152}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,27 +70,177 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
     <t>9,2%</t>
   </si>
   <si>
@@ -118,33 +268,6 @@
     <t>11,44%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
     <t>42,75%</t>
   </si>
   <si>
@@ -172,18 +295,6 @@
     <t>44,61%</t>
   </si>
   <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
     <t>48,05%</t>
   </si>
   <si>
@@ -211,115 +322,43 @@
     <t>51,89%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
   </si>
   <si>
     <t>9,4%</t>
@@ -349,30 +388,6 @@
     <t>12,39%</t>
   </si>
   <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
     <t>42,24%</t>
   </si>
   <si>
@@ -400,21 +415,6 @@
     <t>44,07%</t>
   </si>
   <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
     <t>48,03%</t>
   </si>
   <si>
@@ -445,6 +445,153 @@
     <t>Menores según frecuencia de ayudarse entre los amigos en 2012 (Tasa respuesta: 44,69%)</t>
   </si>
   <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
     <t>7,14%</t>
   </si>
   <si>
@@ -472,33 +619,6 @@
     <t>9,5%</t>
   </si>
   <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
     <t>35,71%</t>
   </si>
   <si>
@@ -520,30 +640,6 @@
     <t>40,67%</t>
   </si>
   <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
     <t>55,03%</t>
   </si>
   <si>
@@ -571,100 +667,46 @@
     <t>56,87%</t>
   </si>
   <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
   </si>
   <si>
     <t>8,53%</t>
@@ -694,27 +736,6 @@
     <t>9,19%</t>
   </si>
   <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
     <t>36,78%</t>
   </si>
   <si>
@@ -742,27 +763,6 @@
     <t>42,07%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
     <t>53,0%</t>
   </si>
   <si>
@@ -790,6 +790,156 @@
     <t>Menores según frecuencia de ayudarse entre los amigos en 2015 (Tasa respuesta: 47,04%)</t>
   </si>
   <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
     <t>5,47%</t>
   </si>
   <si>
@@ -814,27 +964,6 @@
     <t>11,04%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
     <t>36,04%</t>
   </si>
   <si>
@@ -862,21 +991,6 @@
     <t>38,01%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
     <t>55,58%</t>
   </si>
   <si>
@@ -904,118 +1018,31 @@
     <t>58,95%</t>
   </si>
   <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
   </si>
   <si>
     <t>7,18%</t>
@@ -1045,24 +1072,6 @@
     <t>10,09%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
     <t>35,25%</t>
   </si>
   <si>
@@ -1088,15 +1097,6 @@
   </si>
   <si>
     <t>36,92%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
   </si>
   <si>
     <t>56,36%</t>
@@ -1515,7 +1515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC6D6CF-E5B2-44A7-B619-E84E424BDB3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF64099B-DD16-472F-A88E-0EC216303596}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1905,10 +1905,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>25648</v>
+        <v>647</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -1920,34 +1920,34 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>24949</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>647</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="7">
-        <v>76</v>
-      </c>
-      <c r="N10" s="7">
-        <v>50597</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1956,49 +1956,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>487</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1</v>
+      </c>
+      <c r="N11" s="7">
+        <v>487</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="P11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="7">
-        <v>4</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2604</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="7">
-        <v>4</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2604</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2007,49 +2007,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="D12" s="7">
-        <v>119209</v>
+        <v>6726</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>17</v>
+      </c>
+      <c r="I12" s="7">
+        <v>11260</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="7">
+        <v>27</v>
+      </c>
+      <c r="N12" s="7">
+        <v>17986</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="7">
-        <v>155</v>
-      </c>
-      <c r="I12" s="7">
-        <v>106152</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" s="7">
-        <v>333</v>
-      </c>
-      <c r="N12" s="7">
-        <v>225361</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2058,49 +2058,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>26198</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="I13" s="7">
-        <v>632</v>
+        <v>19415</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="7">
+        <v>68</v>
+      </c>
+      <c r="N13" s="7">
+        <v>45613</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="M13" s="7">
-        <v>1</v>
-      </c>
-      <c r="N13" s="7">
-        <v>632</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2109,49 +2109,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>201</v>
+        <v>48</v>
       </c>
       <c r="D14" s="7">
-        <v>133971</v>
+        <v>31358</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>37</v>
+      </c>
+      <c r="I14" s="7">
+        <v>25367</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="7">
-        <v>194</v>
-      </c>
-      <c r="I14" s="7">
-        <v>129186</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>85</v>
+      </c>
+      <c r="N14" s="7">
+        <v>56725</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M14" s="7">
-        <v>395</v>
-      </c>
-      <c r="N14" s="7">
-        <v>263157</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2160,102 +2160,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>418</v>
+        <v>99</v>
       </c>
       <c r="D15" s="7">
-        <v>278827</v>
+        <v>65417</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H15" s="7">
-        <v>391</v>
+        <v>83</v>
       </c>
       <c r="I15" s="7">
-        <v>263524</v>
+        <v>56042</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M15" s="7">
-        <v>809</v>
+        <v>182</v>
       </c>
       <c r="N15" s="7">
-        <v>542351</v>
+        <v>121458</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>6726</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>632</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>1</v>
+      </c>
+      <c r="N16" s="7">
+        <v>632</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="P16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="H16" s="7">
-        <v>17</v>
-      </c>
-      <c r="I16" s="7">
-        <v>11260</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M16" s="7">
-        <v>27</v>
-      </c>
-      <c r="N16" s="7">
-        <v>17986</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2264,49 +2264,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>487</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>2604</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>487</v>
+        <v>2604</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2318,46 +2318,46 @@
         <v>39</v>
       </c>
       <c r="D18" s="7">
-        <v>26198</v>
+        <v>25648</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="7">
+        <v>37</v>
+      </c>
+      <c r="I18" s="7">
+        <v>24949</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M18" s="7">
+        <v>76</v>
+      </c>
+      <c r="N18" s="7">
+        <v>50597</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="H18" s="7">
-        <v>29</v>
-      </c>
-      <c r="I18" s="7">
-        <v>19415</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="M18" s="7">
-        <v>68</v>
-      </c>
-      <c r="N18" s="7">
-        <v>45613</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2366,46 +2366,46 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="D19" s="7">
-        <v>647</v>
+        <v>119209</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="7">
+        <v>155</v>
+      </c>
+      <c r="I19" s="7">
+        <v>106152</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M19" s="7">
+        <v>333</v>
+      </c>
+      <c r="N19" s="7">
+        <v>225361</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1</v>
-      </c>
-      <c r="N19" s="7">
-        <v>647</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>84</v>
@@ -2417,10 +2417,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>48</v>
+        <v>201</v>
       </c>
       <c r="D20" s="7">
-        <v>31358</v>
+        <v>133971</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>85</v>
@@ -2432,10 +2432,10 @@
         <v>87</v>
       </c>
       <c r="H20" s="7">
-        <v>37</v>
+        <v>194</v>
       </c>
       <c r="I20" s="7">
-        <v>25367</v>
+        <v>129186</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>88</v>
@@ -2447,10 +2447,10 @@
         <v>90</v>
       </c>
       <c r="M20" s="7">
-        <v>85</v>
+        <v>395</v>
       </c>
       <c r="N20" s="7">
-        <v>56725</v>
+        <v>263157</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>91</v>
@@ -2468,49 +2468,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>99</v>
+        <v>418</v>
       </c>
       <c r="D21" s="7">
-        <v>65417</v>
+        <v>278827</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H21" s="7">
-        <v>83</v>
+        <v>391</v>
       </c>
       <c r="I21" s="7">
-        <v>56042</v>
+        <v>263524</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M21" s="7">
-        <v>182</v>
+        <v>809</v>
       </c>
       <c r="N21" s="7">
-        <v>121458</v>
+        <v>542351</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2521,49 +2521,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>32374</v>
+        <v>647</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>94</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7">
+        <v>632</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H22" s="7">
-        <v>54</v>
-      </c>
-      <c r="I22" s="7">
-        <v>36209</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>2</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1280</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="M22" s="7">
-        <v>103</v>
-      </c>
-      <c r="N22" s="7">
-        <v>68583</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2578,13 +2578,13 @@
         <v>487</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -2593,13 +2593,13 @@
         <v>2604</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -2608,13 +2608,13 @@
         <v>3091</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2623,49 +2623,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>217</v>
+        <v>49</v>
       </c>
       <c r="D24" s="7">
-        <v>145406</v>
+        <v>32374</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" s="7">
+        <v>54</v>
+      </c>
+      <c r="I24" s="7">
+        <v>36209</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>103</v>
+      </c>
+      <c r="N24" s="7">
+        <v>68583</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="H24" s="7">
-        <v>184</v>
-      </c>
-      <c r="I24" s="7">
-        <v>125567</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="M24" s="7">
-        <v>401</v>
-      </c>
-      <c r="N24" s="7">
-        <v>270974</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2674,46 +2674,46 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
+        <v>217</v>
       </c>
       <c r="D25" s="7">
-        <v>647</v>
+        <v>145406</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H25" s="7">
+        <v>184</v>
+      </c>
+      <c r="I25" s="7">
+        <v>125567</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="H25" s="7">
-        <v>1</v>
-      </c>
-      <c r="I25" s="7">
-        <v>632</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>401</v>
+      </c>
+      <c r="N25" s="7">
+        <v>270974</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="M25" s="7">
-        <v>2</v>
-      </c>
-      <c r="N25" s="7">
-        <v>1280</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>124</v>
@@ -2782,13 +2782,13 @@
         <v>344243</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H27" s="7">
         <v>474</v>
@@ -2797,13 +2797,13 @@
         <v>319566</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M27" s="7">
         <v>991</v>
@@ -2812,13 +2812,13 @@
         <v>663809</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2837,7 +2837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9060D56A-2D9E-40DC-A440-13F0A402CCD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF26D38-8399-4925-A453-D10DE6D15CFA}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3227,49 +3227,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>18915</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>698</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H10" s="7">
-        <v>28</v>
-      </c>
-      <c r="I10" s="7">
-        <v>19487</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>698</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="M10" s="7">
-        <v>56</v>
-      </c>
-      <c r="N10" s="7">
-        <v>38402</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3278,49 +3278,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>4306</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>3788</v>
+        <v>537</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="M11" s="7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>8094</v>
+        <v>537</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3329,49 +3329,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="D12" s="7">
-        <v>94641</v>
+        <v>9332</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="H12" s="7">
-        <v>137</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>94746</v>
+        <v>1406</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>49</v>
+        <v>148</v>
       </c>
       <c r="M12" s="7">
-        <v>273</v>
+        <v>15</v>
       </c>
       <c r="N12" s="7">
-        <v>189387</v>
+        <v>10738</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3380,49 +3380,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="D13" s="7">
-        <v>1298</v>
+        <v>27158</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>26</v>
+        <v>153</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="H13" s="7">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="I13" s="7">
-        <v>3062</v>
+        <v>36491</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="M13" s="7">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="N13" s="7">
-        <v>4360</v>
+        <v>63649</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>165</v>
+        <v>42</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,49 +3431,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>218</v>
+        <v>42</v>
       </c>
       <c r="D14" s="7">
-        <v>145839</v>
+        <v>29684</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="H14" s="7">
-        <v>181</v>
+        <v>46</v>
       </c>
       <c r="I14" s="7">
-        <v>128148</v>
+        <v>32837</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="M14" s="7">
-        <v>399</v>
+        <v>88</v>
       </c>
       <c r="N14" s="7">
-        <v>273987</v>
+        <v>62521</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>174</v>
+        <v>49</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3482,102 +3482,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>390</v>
+        <v>92</v>
       </c>
       <c r="D15" s="7">
-        <v>265000</v>
+        <v>66174</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H15" s="7">
-        <v>355</v>
+        <v>101</v>
       </c>
       <c r="I15" s="7">
-        <v>249231</v>
+        <v>71969</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M15" s="7">
-        <v>745</v>
+        <v>193</v>
       </c>
       <c r="N15" s="7">
-        <v>514231</v>
+        <v>138143</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>9332</v>
+        <v>1298</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>178</v>
+        <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>1406</v>
+        <v>3062</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="M16" s="7">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N16" s="7">
-        <v>10738</v>
+        <v>4360</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,49 +3586,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>4306</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>26</v>
+        <v>176</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>537</v>
+        <v>3788</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="N17" s="7">
-        <v>537</v>
+        <v>8094</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>26</v>
+        <v>182</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,49 +3637,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D18" s="7">
-        <v>27158</v>
+        <v>18915</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H18" s="7">
+        <v>28</v>
+      </c>
+      <c r="I18" s="7">
+        <v>19487</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="M18" s="7">
+        <v>56</v>
+      </c>
+      <c r="N18" s="7">
+        <v>38402</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="H18" s="7">
-        <v>51</v>
-      </c>
-      <c r="I18" s="7">
-        <v>36491</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="M18" s="7">
-        <v>88</v>
-      </c>
-      <c r="N18" s="7">
-        <v>63649</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3688,49 +3688,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>94641</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>26</v>
+        <v>193</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>27</v>
+        <v>194</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="I19" s="7">
-        <v>698</v>
+        <v>94746</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M19" s="7">
+        <v>273</v>
+      </c>
+      <c r="N19" s="7">
+        <v>189387</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1</v>
-      </c>
-      <c r="N19" s="7">
-        <v>698</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,43 +3739,43 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>42</v>
+        <v>218</v>
       </c>
       <c r="D20" s="7">
-        <v>29684</v>
+        <v>145839</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>181</v>
+      </c>
+      <c r="I20" s="7">
+        <v>128148</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="H20" s="7">
-        <v>46</v>
-      </c>
-      <c r="I20" s="7">
-        <v>32837</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>399</v>
+      </c>
+      <c r="N20" s="7">
+        <v>273987</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="M20" s="7">
-        <v>88</v>
-      </c>
-      <c r="N20" s="7">
-        <v>62521</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>207</v>
@@ -3790,49 +3790,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>92</v>
+        <v>390</v>
       </c>
       <c r="D21" s="7">
-        <v>66174</v>
+        <v>265000</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H21" s="7">
-        <v>101</v>
+        <v>355</v>
       </c>
       <c r="I21" s="7">
-        <v>71969</v>
+        <v>249231</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M21" s="7">
-        <v>193</v>
+        <v>745</v>
       </c>
       <c r="N21" s="7">
-        <v>138143</v>
+        <v>514231</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,49 +3843,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>28247</v>
+        <v>1298</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>5</v>
+      </c>
+      <c r="I22" s="7">
+        <v>3760</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="H22" s="7">
-        <v>30</v>
-      </c>
-      <c r="I22" s="7">
-        <v>20893</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>7</v>
+      </c>
+      <c r="N22" s="7">
+        <v>5058</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="M22" s="7">
-        <v>71</v>
-      </c>
-      <c r="N22" s="7">
-        <v>49140</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3900,13 +3900,13 @@
         <v>4306</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -3915,13 +3915,13 @@
         <v>4325</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M23" s="7">
         <v>12</v>
@@ -3930,13 +3930,13 @@
         <v>8631</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,49 +3945,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="D24" s="7">
-        <v>121799</v>
+        <v>28247</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>30</v>
+      </c>
+      <c r="I24" s="7">
+        <v>20893</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="H24" s="7">
-        <v>188</v>
-      </c>
-      <c r="I24" s="7">
-        <v>131237</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>71</v>
+      </c>
+      <c r="N24" s="7">
+        <v>49140</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="M24" s="7">
-        <v>361</v>
-      </c>
-      <c r="N24" s="7">
-        <v>253037</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,25 +3996,25 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>2</v>
+        <v>173</v>
       </c>
       <c r="D25" s="7">
-        <v>1298</v>
+        <v>121799</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>188</v>
+        <v>232</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>234</v>
       </c>
       <c r="H25" s="7">
-        <v>5</v>
+        <v>188</v>
       </c>
       <c r="I25" s="7">
-        <v>3760</v>
+        <v>131237</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>235</v>
@@ -4026,10 +4026,10 @@
         <v>237</v>
       </c>
       <c r="M25" s="7">
-        <v>7</v>
+        <v>361</v>
       </c>
       <c r="N25" s="7">
-        <v>5058</v>
+        <v>253037</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>238</v>
@@ -4104,13 +4104,13 @@
         <v>331174</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H27" s="7">
         <v>456</v>
@@ -4119,13 +4119,13 @@
         <v>321200</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M27" s="7">
         <v>938</v>
@@ -4134,13 +4134,13 @@
         <v>652374</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -4159,7 +4159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE2E867-8464-46E1-8E67-AC9A660C099D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7113588-893C-4806-9B95-C69B95042C28}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4549,49 +4549,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>21097</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>215</v>
+        <v>18</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>724</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="H10" s="7">
-        <v>36</v>
-      </c>
-      <c r="I10" s="7">
-        <v>26439</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>724</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="M10" s="7">
-        <v>66</v>
-      </c>
-      <c r="N10" s="7">
-        <v>47536</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4600,49 +4600,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>1582</v>
+        <v>1956</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>724</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="M11" s="7">
+        <v>4</v>
+      </c>
+      <c r="N11" s="7">
+        <v>2680</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="H11" s="7">
-        <v>5</v>
-      </c>
-      <c r="I11" s="7">
-        <v>4187</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="M11" s="7">
-        <v>7</v>
-      </c>
-      <c r="N11" s="7">
-        <v>5769</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4651,49 +4651,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>136</v>
+        <v>7</v>
       </c>
       <c r="D12" s="7">
-        <v>101009</v>
+        <v>4698</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H12" s="7">
+        <v>9</v>
+      </c>
+      <c r="I12" s="7">
+        <v>5967</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>16</v>
+      </c>
+      <c r="N12" s="7">
+        <v>10665</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="H12" s="7">
-        <v>126</v>
-      </c>
-      <c r="I12" s="7">
-        <v>88149</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="M12" s="7">
-        <v>262</v>
-      </c>
-      <c r="N12" s="7">
-        <v>189159</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4702,46 +4702,46 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D13" s="7">
-        <v>790</v>
+        <v>25640</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H13" s="7">
+        <v>43</v>
+      </c>
+      <c r="I13" s="7">
+        <v>27360</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>81</v>
+      </c>
+      <c r="N13" s="7">
+        <v>53000</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="M13" s="7">
-        <v>1</v>
-      </c>
-      <c r="N13" s="7">
-        <v>790</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>278</v>
@@ -4753,10 +4753,10 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>210</v>
+        <v>66</v>
       </c>
       <c r="D14" s="7">
-        <v>155768</v>
+        <v>46725</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>279</v>
@@ -4768,10 +4768,10 @@
         <v>281</v>
       </c>
       <c r="H14" s="7">
-        <v>203</v>
+        <v>83</v>
       </c>
       <c r="I14" s="7">
-        <v>145208</v>
+        <v>55939</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>282</v>
@@ -4783,10 +4783,10 @@
         <v>284</v>
       </c>
       <c r="M14" s="7">
-        <v>413</v>
+        <v>149</v>
       </c>
       <c r="N14" s="7">
-        <v>300976</v>
+        <v>102664</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>285</v>
@@ -4804,102 +4804,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>379</v>
+        <v>114</v>
       </c>
       <c r="D15" s="7">
-        <v>280245</v>
+        <v>79019</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H15" s="7">
-        <v>370</v>
+        <v>137</v>
       </c>
       <c r="I15" s="7">
-        <v>263984</v>
+        <v>90714</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M15" s="7">
-        <v>749</v>
+        <v>251</v>
       </c>
       <c r="N15" s="7">
-        <v>544230</v>
+        <v>169733</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>4698</v>
+        <v>790</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>288</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="H16" s="7">
-        <v>9</v>
-      </c>
-      <c r="I16" s="7">
-        <v>5967</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>1</v>
+      </c>
+      <c r="N16" s="7">
+        <v>790</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="M16" s="7">
-        <v>16</v>
-      </c>
-      <c r="N16" s="7">
-        <v>10665</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4908,49 +4908,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>1956</v>
+        <v>1582</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H17" s="7">
+        <v>5</v>
+      </c>
+      <c r="I17" s="7">
+        <v>4187</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>7</v>
+      </c>
+      <c r="N17" s="7">
+        <v>5769</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>724</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="P17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="M17" s="7">
-        <v>4</v>
-      </c>
-      <c r="N17" s="7">
-        <v>2680</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4959,49 +4959,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D18" s="7">
-        <v>25640</v>
+        <v>21097</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="H18" s="7">
+        <v>36</v>
+      </c>
+      <c r="I18" s="7">
+        <v>26439</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>66</v>
+      </c>
+      <c r="N18" s="7">
+        <v>47536</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="H18" s="7">
-        <v>43</v>
-      </c>
-      <c r="I18" s="7">
-        <v>27360</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="M18" s="7">
-        <v>81</v>
-      </c>
-      <c r="N18" s="7">
-        <v>53000</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,46 +5010,46 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>101009</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>26</v>
+        <v>308</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>27</v>
+        <v>309</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H19" s="7">
+        <v>126</v>
+      </c>
+      <c r="I19" s="7">
+        <v>88149</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>724</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>262</v>
+      </c>
+      <c r="N19" s="7">
+        <v>189159</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="M19" s="7">
-        <v>1</v>
-      </c>
-      <c r="N19" s="7">
-        <v>724</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>316</v>
@@ -5061,10 +5061,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>66</v>
+        <v>210</v>
       </c>
       <c r="D20" s="7">
-        <v>46725</v>
+        <v>155768</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>317</v>
@@ -5076,10 +5076,10 @@
         <v>319</v>
       </c>
       <c r="H20" s="7">
-        <v>83</v>
+        <v>203</v>
       </c>
       <c r="I20" s="7">
-        <v>55939</v>
+        <v>145208</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>320</v>
@@ -5091,10 +5091,10 @@
         <v>322</v>
       </c>
       <c r="M20" s="7">
-        <v>149</v>
+        <v>413</v>
       </c>
       <c r="N20" s="7">
-        <v>102664</v>
+        <v>300976</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>323</v>
@@ -5112,49 +5112,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>114</v>
+        <v>379</v>
       </c>
       <c r="D21" s="7">
-        <v>79019</v>
+        <v>280245</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H21" s="7">
-        <v>137</v>
+        <v>370</v>
       </c>
       <c r="I21" s="7">
-        <v>90714</v>
+        <v>263984</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M21" s="7">
-        <v>251</v>
+        <v>749</v>
       </c>
       <c r="N21" s="7">
-        <v>169733</v>
+        <v>544230</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5165,49 +5165,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>25795</v>
+        <v>790</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>326</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7">
+        <v>724</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="H22" s="7">
-        <v>45</v>
-      </c>
-      <c r="I22" s="7">
-        <v>32407</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>331</v>
-      </c>
       <c r="M22" s="7">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>58202</v>
+        <v>1513</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>332</v>
+        <v>102</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>333</v>
+        <v>18</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>334</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5222,13 +5222,13 @@
         <v>3538</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -5237,13 +5237,13 @@
         <v>4911</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
@@ -5252,13 +5252,13 @@
         <v>8449</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5267,49 +5267,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>174</v>
+        <v>37</v>
       </c>
       <c r="D24" s="7">
-        <v>126650</v>
+        <v>25795</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H24" s="7">
+        <v>45</v>
+      </c>
+      <c r="I24" s="7">
+        <v>32407</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="M24" s="7">
+        <v>82</v>
+      </c>
+      <c r="N24" s="7">
+        <v>58202</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="H24" s="7">
-        <v>169</v>
-      </c>
-      <c r="I24" s="7">
-        <v>115509</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="M24" s="7">
-        <v>343</v>
-      </c>
-      <c r="N24" s="7">
-        <v>242159</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5318,49 +5318,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="D25" s="7">
-        <v>790</v>
+        <v>126650</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H25" s="7">
+        <v>169</v>
+      </c>
+      <c r="I25" s="7">
+        <v>115509</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="M25" s="7">
+        <v>343</v>
+      </c>
+      <c r="N25" s="7">
+        <v>242159</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="H25" s="7">
-        <v>1</v>
-      </c>
-      <c r="I25" s="7">
-        <v>724</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="M25" s="7">
-        <v>2</v>
-      </c>
-      <c r="N25" s="7">
-        <v>1513</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,13 +5426,13 @@
         <v>359264</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H27" s="7">
         <v>507</v>
@@ -5441,13 +5441,13 @@
         <v>354698</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M27" s="7">
         <v>1000</v>
@@ -5456,13 +5456,13 @@
         <v>713962</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A16-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A16-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C32DAA03-C4B0-4EAE-8BAD-89D7FFE21F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C62D3F3C-9F04-4D09-B145-E64A0A846856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{993B231B-67DE-4E8D-BFA8-6DB66C71F152}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A38B04B1-9881-4AA1-90FC-0B35952E89CB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="356">
   <si>
     <t>Menores según frecuencia de ayudarse entre los amigos en 2007 (Tasa respuesta: 47,1%)</t>
   </si>
@@ -67,1063 +67,1045 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>0,99%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,9%</t>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de ayudarse entre los amigos en 2012 (Tasa respuesta: 44,69%)</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de ayudarse entre los amigos en 2015 (Tasa respuesta: 47,04%)</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
   </si>
   <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
   </si>
   <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de ayudarse entre los amigos en 2012 (Tasa respuesta: 44,69%)</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de ayudarse entre los amigos en 2015 (Tasa respuesta: 47,04%)</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1116,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1230,39 +1212,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1314,7 +1296,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1425,13 +1407,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1440,6 +1415,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1504,19 +1486,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF64099B-DD16-472F-A88E-0EC216303596}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DD3189-9EC5-4BE5-B2EC-D1681FA28A90}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1905,49 +1907,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>647</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>647</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1956,49 +1952,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>487</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>487</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2007,49 +1997,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>10</v>
-      </c>
-      <c r="D12" s="7">
-        <v>6726</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>17</v>
-      </c>
-      <c r="I12" s="7">
-        <v>11260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>27</v>
-      </c>
-      <c r="N12" s="7">
-        <v>17986</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2058,49 +2042,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>39</v>
-      </c>
-      <c r="D13" s="7">
-        <v>26198</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>29</v>
-      </c>
-      <c r="I13" s="7">
-        <v>19415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>68</v>
-      </c>
-      <c r="N13" s="7">
-        <v>45613</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2109,49 +2087,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>48</v>
-      </c>
-      <c r="D14" s="7">
-        <v>31358</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>37</v>
-      </c>
-      <c r="I14" s="7">
-        <v>25367</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>85</v>
-      </c>
-      <c r="N14" s="7">
-        <v>56725</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2160,102 +2132,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>99</v>
-      </c>
-      <c r="D15" s="7">
-        <v>65417</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>83</v>
-      </c>
-      <c r="I15" s="7">
-        <v>56042</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>182</v>
-      </c>
-      <c r="N15" s="7">
-        <v>121458</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>60959</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="I16" s="7">
-        <v>632</v>
+        <v>58591</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="N16" s="7">
-        <v>632</v>
+        <v>119551</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2264,49 +2230,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>62257</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="I17" s="7">
-        <v>2604</v>
+        <v>48452</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>4</v>
+        <v>164</v>
       </c>
       <c r="N17" s="7">
-        <v>2604</v>
+        <v>110710</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2315,49 +2281,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>24</v>
+      </c>
+      <c r="D18" s="7">
+        <v>15820</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="7">
+        <v>27</v>
+      </c>
+      <c r="I18" s="7">
+        <v>17831</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="7">
-        <v>25648</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" s="7">
-        <v>37</v>
-      </c>
-      <c r="I18" s="7">
-        <v>24949</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="K18" s="7" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="N18" s="7">
-        <v>50597</v>
+        <v>33651</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2366,49 +2332,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>119209</v>
+        <v>487</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>155</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>106152</v>
+        <v>1387</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="M19" s="7">
-        <v>333</v>
+        <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>225361</v>
+        <v>1874</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2417,49 +2383,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>133971</v>
+        <v>647</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="H20" s="7">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>129186</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="M20" s="7">
-        <v>395</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>263157</v>
+        <v>647</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2468,102 +2434,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>418</v>
+        <v>210</v>
       </c>
       <c r="D21" s="7">
-        <v>278827</v>
+        <v>140171</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>391</v>
+        <v>189</v>
       </c>
       <c r="I21" s="7">
-        <v>263524</v>
+        <v>126262</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>809</v>
+        <v>399</v>
       </c>
       <c r="N21" s="7">
-        <v>542351</v>
+        <v>266433</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="D22" s="7">
-        <v>647</v>
+        <v>104369</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>143</v>
       </c>
       <c r="I22" s="7">
-        <v>632</v>
+        <v>95962</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="M22" s="7">
-        <v>2</v>
+        <v>300</v>
       </c>
       <c r="N22" s="7">
-        <v>1280</v>
+        <v>200331</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2572,49 +2538,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="D23" s="7">
-        <v>487</v>
+        <v>83149</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="H23" s="7">
-        <v>4</v>
+        <v>112</v>
       </c>
       <c r="I23" s="7">
-        <v>2604</v>
+        <v>77115</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="M23" s="7">
-        <v>5</v>
+        <v>237</v>
       </c>
       <c r="N23" s="7">
-        <v>3091</v>
+        <v>160264</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2623,49 +2589,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D24" s="7">
-        <v>32374</v>
+        <v>16554</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="H24" s="7">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="I24" s="7">
-        <v>36209</v>
+        <v>18378</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="M24" s="7">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="N24" s="7">
-        <v>68583</v>
+        <v>34932</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2674,49 +2640,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>217</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>145406</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="H25" s="7">
-        <v>184</v>
+        <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>125567</v>
+        <v>1217</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="M25" s="7">
-        <v>401</v>
+        <v>2</v>
       </c>
       <c r="N25" s="7">
-        <v>270974</v>
+        <v>1217</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2725,49 +2691,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>249</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>165328</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="H26" s="7">
-        <v>231</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>154553</v>
+        <v>632</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="M26" s="7">
-        <v>480</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>319882</v>
+        <v>632</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2776,55 +2742,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>307</v>
+      </c>
+      <c r="D27" s="7">
+        <v>204072</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
+        <v>285</v>
+      </c>
+      <c r="I27" s="7">
+        <v>193304</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M27" s="7">
+        <v>592</v>
+      </c>
+      <c r="N27" s="7">
+        <v>397376</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>249</v>
+      </c>
+      <c r="D28" s="7">
+        <v>165328</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H28" s="7">
+        <v>231</v>
+      </c>
+      <c r="I28" s="7">
+        <v>154553</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M28" s="7">
+        <v>480</v>
+      </c>
+      <c r="N28" s="7">
+        <v>319882</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>217</v>
+      </c>
+      <c r="D29" s="7">
+        <v>145406</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H29" s="7">
+        <v>184</v>
+      </c>
+      <c r="I29" s="7">
+        <v>125567</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M29" s="7">
+        <v>401</v>
+      </c>
+      <c r="N29" s="7">
+        <v>270974</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>49</v>
+      </c>
+      <c r="D30" s="7">
+        <v>32374</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H30" s="7">
+        <v>54</v>
+      </c>
+      <c r="I30" s="7">
+        <v>36209</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="M30" s="7">
+        <v>103</v>
+      </c>
+      <c r="N30" s="7">
+        <v>68583</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7">
+        <v>487</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H31" s="7">
+        <v>4</v>
+      </c>
+      <c r="I31" s="7">
+        <v>2604</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M31" s="7">
+        <v>5</v>
+      </c>
+      <c r="N31" s="7">
+        <v>3091</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7">
+        <v>647</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7">
+        <v>632</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M32" s="7">
+        <v>2</v>
+      </c>
+      <c r="N32" s="7">
+        <v>1280</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>517</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>344243</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>474</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>319566</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="7">
         <v>991</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>663809</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>55</v>
+      <c r="O33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2837,8 +3117,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF26D38-8399-4925-A453-D10DE6D15CFA}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F760528-C939-4D0F-A6CE-E6B85547CDE3}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2854,7 +3134,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3229,47 +3509,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>698</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>698</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>138</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3280,47 +3554,41 @@
       <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>537</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>537</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3329,49 +3597,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>13</v>
-      </c>
-      <c r="D12" s="7">
-        <v>9332</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1406</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>15</v>
-      </c>
-      <c r="N12" s="7">
-        <v>10738</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3380,49 +3642,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>37</v>
-      </c>
-      <c r="D13" s="7">
-        <v>27158</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>51</v>
-      </c>
-      <c r="I13" s="7">
-        <v>36491</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>88</v>
-      </c>
-      <c r="N13" s="7">
-        <v>63649</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,49 +3687,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>42</v>
-      </c>
-      <c r="D14" s="7">
-        <v>29684</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>46</v>
-      </c>
-      <c r="I14" s="7">
-        <v>32837</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>88</v>
-      </c>
-      <c r="N14" s="7">
-        <v>62521</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3482,102 +3732,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>92</v>
-      </c>
-      <c r="D15" s="7">
-        <v>66174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>101</v>
-      </c>
-      <c r="I15" s="7">
-        <v>71969</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>193</v>
-      </c>
-      <c r="N15" s="7">
-        <v>138143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="D16" s="7">
-        <v>1298</v>
+        <v>77255</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="H16" s="7">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="I16" s="7">
-        <v>3062</v>
+        <v>77061</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="M16" s="7">
-        <v>6</v>
+        <v>224</v>
       </c>
       <c r="N16" s="7">
-        <v>4360</v>
+        <v>154316</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,49 +3830,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="D17" s="7">
-        <v>4306</v>
+        <v>58687</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="I17" s="7">
-        <v>3788</v>
+        <v>66960</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="M17" s="7">
-        <v>11</v>
+        <v>175</v>
       </c>
       <c r="N17" s="7">
-        <v>8094</v>
+        <v>125648</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,49 +3881,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D18" s="7">
-        <v>18915</v>
+        <v>18114</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="H18" s="7">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I18" s="7">
-        <v>19487</v>
+        <v>8223</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="M18" s="7">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="N18" s="7">
-        <v>38402</v>
+        <v>26336</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3688,49 +3932,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>136</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>94641</v>
+        <v>1927</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="H19" s="7">
-        <v>137</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>94746</v>
+        <v>1193</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>196</v>
+        <v>46</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>86</v>
+        <v>166</v>
       </c>
       <c r="M19" s="7">
-        <v>273</v>
+        <v>5</v>
       </c>
       <c r="N19" s="7">
-        <v>189387</v>
+        <v>3120</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>197</v>
+        <v>133</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,49 +3983,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>218</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>145839</v>
+        <v>691</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>201</v>
+        <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="H20" s="7">
-        <v>181</v>
+        <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>128148</v>
+        <v>1359</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>204</v>
+        <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="M20" s="7">
-        <v>399</v>
+        <v>3</v>
       </c>
       <c r="N20" s="7">
-        <v>273987</v>
+        <v>2050</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>207</v>
+        <v>125</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3790,102 +4034,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>390</v>
+        <v>225</v>
       </c>
       <c r="D21" s="7">
-        <v>265000</v>
+        <v>156674</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>355</v>
+        <v>220</v>
       </c>
       <c r="I21" s="7">
-        <v>249231</v>
+        <v>154796</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>745</v>
+        <v>445</v>
       </c>
       <c r="N21" s="7">
-        <v>514231</v>
+        <v>311470</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2</v>
+        <v>145</v>
       </c>
       <c r="D22" s="7">
-        <v>1298</v>
+        <v>98268</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>175</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="H22" s="7">
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="I22" s="7">
-        <v>3760</v>
+        <v>83924</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="M22" s="7">
-        <v>7</v>
+        <v>263</v>
       </c>
       <c r="N22" s="7">
-        <v>5058</v>
+        <v>182192</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3894,49 +4138,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="D23" s="7">
-        <v>4306</v>
+        <v>63112</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>57</v>
+        <v>184</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="H23" s="7">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="I23" s="7">
-        <v>4325</v>
+        <v>64277</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>22</v>
+        <v>187</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="M23" s="7">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="N23" s="7">
-        <v>8631</v>
+        <v>127389</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,49 +4189,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D24" s="7">
-        <v>28247</v>
+        <v>10134</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>224</v>
+        <v>164</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="H24" s="7">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I24" s="7">
-        <v>20893</v>
+        <v>12670</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="M24" s="7">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="N24" s="7">
-        <v>49140</v>
+        <v>22804</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,49 +4240,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>173</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>121799</v>
+        <v>2379</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>233</v>
+        <v>92</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="H25" s="7">
-        <v>188</v>
+        <v>4</v>
       </c>
       <c r="I25" s="7">
-        <v>131237</v>
+        <v>3132</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>236</v>
+        <v>127</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="M25" s="7">
-        <v>361</v>
+        <v>7</v>
       </c>
       <c r="N25" s="7">
-        <v>253037</v>
+        <v>5511</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,49 +4291,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>260</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>175523</v>
+        <v>607</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>241</v>
+        <v>45</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>242</v>
+        <v>47</v>
       </c>
       <c r="H26" s="7">
-        <v>227</v>
+        <v>3</v>
       </c>
       <c r="I26" s="7">
-        <v>160985</v>
+        <v>2401</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>244</v>
+        <v>168</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="M26" s="7">
-        <v>487</v>
+        <v>4</v>
       </c>
       <c r="N26" s="7">
-        <v>336508</v>
+        <v>3008</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>246</v>
+        <v>170</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,55 +4342,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>257</v>
+      </c>
+      <c r="D27" s="7">
+        <v>174500</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
+        <v>236</v>
+      </c>
+      <c r="I27" s="7">
+        <v>166404</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M27" s="7">
+        <v>493</v>
+      </c>
+      <c r="N27" s="7">
+        <v>340904</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>260</v>
+      </c>
+      <c r="D28" s="7">
+        <v>175523</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H28" s="7">
+        <v>227</v>
+      </c>
+      <c r="I28" s="7">
+        <v>160985</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="M28" s="7">
+        <v>487</v>
+      </c>
+      <c r="N28" s="7">
+        <v>336508</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>173</v>
+      </c>
+      <c r="D29" s="7">
+        <v>121799</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H29" s="7">
+        <v>188</v>
+      </c>
+      <c r="I29" s="7">
+        <v>131237</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="M29" s="7">
+        <v>361</v>
+      </c>
+      <c r="N29" s="7">
+        <v>253037</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>41</v>
+      </c>
+      <c r="D30" s="7">
+        <v>28247</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H30" s="7">
+        <v>30</v>
+      </c>
+      <c r="I30" s="7">
+        <v>20893</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="M30" s="7">
+        <v>71</v>
+      </c>
+      <c r="N30" s="7">
+        <v>49140</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>6</v>
+      </c>
+      <c r="D31" s="7">
+        <v>4306</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H31" s="7">
+        <v>6</v>
+      </c>
+      <c r="I31" s="7">
+        <v>4325</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M31" s="7">
+        <v>12</v>
+      </c>
+      <c r="N31" s="7">
+        <v>8631</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1298</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H32" s="7">
+        <v>5</v>
+      </c>
+      <c r="I32" s="7">
+        <v>3760</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="M32" s="7">
+        <v>7</v>
+      </c>
+      <c r="N32" s="7">
+        <v>5058</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>482</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>331174</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>456</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>321200</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="7">
         <v>938</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>652374</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>55</v>
+      <c r="O33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4159,8 +4717,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7113588-893C-4806-9B95-C69B95042C28}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAAE256E-A1C2-4F7D-A1E4-40F7AEE7EED1}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4176,7 +4734,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4551,47 +5109,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>250</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>724</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>251</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>252</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>724</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>253</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>254</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4600,49 +5152,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1956</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>256</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>724</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>251</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>257</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>4</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2680</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>259</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>260</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4651,49 +5197,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>7</v>
-      </c>
-      <c r="D12" s="7">
-        <v>4698</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>261</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>262</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>9</v>
-      </c>
-      <c r="I12" s="7">
-        <v>5967</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>264</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>265</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>266</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>16</v>
-      </c>
-      <c r="N12" s="7">
-        <v>10665</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>267</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>268</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>269</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4702,49 +5242,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>38</v>
-      </c>
-      <c r="D13" s="7">
-        <v>25640</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>270</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>272</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>43</v>
-      </c>
-      <c r="I13" s="7">
-        <v>27360</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>273</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>274</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>275</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>81</v>
-      </c>
-      <c r="N13" s="7">
-        <v>53000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>276</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>277</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>278</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4753,49 +5287,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>66</v>
-      </c>
-      <c r="D14" s="7">
-        <v>46725</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>279</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>280</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>281</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>83</v>
-      </c>
-      <c r="I14" s="7">
-        <v>55939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>282</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>283</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>284</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>149</v>
-      </c>
-      <c r="N14" s="7">
-        <v>102664</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>285</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>286</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>287</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4804,102 +5332,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>114</v>
-      </c>
-      <c r="D15" s="7">
-        <v>79019</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>137</v>
-      </c>
-      <c r="I15" s="7">
-        <v>90714</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>251</v>
-      </c>
-      <c r="N15" s="7">
-        <v>169733</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D16" s="7">
-        <v>790</v>
+        <v>106534</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>255</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>113275</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>18</v>
+        <v>257</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>20</v>
+        <v>258</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="N16" s="7">
-        <v>790</v>
+        <v>219809</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>18</v>
+        <v>261</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4908,49 +5430,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="D17" s="7">
-        <v>1582</v>
+        <v>61298</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>264</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="I17" s="7">
-        <v>4187</v>
+        <v>53731</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="M17" s="7">
-        <v>7</v>
+        <v>164</v>
       </c>
       <c r="N17" s="7">
-        <v>5769</v>
+        <v>115029</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>298</v>
+        <v>31</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>57</v>
+        <v>269</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4959,49 +5481,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D18" s="7">
-        <v>21097</v>
+        <v>14640</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>229</v>
+        <v>271</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="H18" s="7">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I18" s="7">
-        <v>26439</v>
+        <v>15906</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="M18" s="7">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="N18" s="7">
-        <v>47536</v>
+        <v>30545</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,49 +5532,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>136</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>101009</v>
+        <v>1956</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>309</v>
+        <v>248</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="H19" s="7">
-        <v>126</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>88149</v>
+        <v>1547</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>312</v>
+        <v>46</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="M19" s="7">
-        <v>262</v>
+        <v>5</v>
       </c>
       <c r="N19" s="7">
-        <v>189159</v>
+        <v>3504</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>315</v>
+        <v>92</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>316</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5061,49 +5583,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>155768</v>
+        <v>790</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>318</v>
+        <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="H20" s="7">
-        <v>203</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>145208</v>
+        <v>724</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>320</v>
+        <v>245</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>321</v>
+        <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="M20" s="7">
-        <v>413</v>
+        <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>300976</v>
+        <v>1513</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>324</v>
+        <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>325</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5112,102 +5634,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>379</v>
+        <v>258</v>
       </c>
       <c r="D21" s="7">
-        <v>280245</v>
+        <v>185217</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>370</v>
+        <v>266</v>
       </c>
       <c r="I21" s="7">
-        <v>263984</v>
+        <v>185183</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>749</v>
+        <v>524</v>
       </c>
       <c r="N21" s="7">
-        <v>544230</v>
+        <v>370400</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="D22" s="7">
-        <v>790</v>
+        <v>95959</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>291</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>327</v>
+        <v>292</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="I22" s="7">
-        <v>724</v>
+        <v>87872</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>96</v>
+        <v>293</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>294</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="M22" s="7">
-        <v>2</v>
+        <v>252</v>
       </c>
       <c r="N22" s="7">
-        <v>1513</v>
+        <v>183831</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>102</v>
+        <v>296</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>18</v>
+        <v>297</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>95</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5216,49 +5738,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="D23" s="7">
-        <v>3538</v>
+        <v>65352</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>174</v>
+        <v>300</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="H23" s="7">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="I23" s="7">
-        <v>4911</v>
+        <v>61778</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="M23" s="7">
-        <v>11</v>
+        <v>179</v>
       </c>
       <c r="N23" s="7">
-        <v>8449</v>
+        <v>127131</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>66</v>
+        <v>305</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5267,49 +5789,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D24" s="7">
-        <v>25795</v>
+        <v>11155</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="H24" s="7">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="I24" s="7">
-        <v>32407</v>
+        <v>16501</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="M24" s="7">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="N24" s="7">
-        <v>58202</v>
+        <v>27656</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5318,49 +5840,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>174</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>126650</v>
+        <v>1582</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>345</v>
+        <v>46</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="H25" s="7">
-        <v>169</v>
+        <v>4</v>
       </c>
       <c r="I25" s="7">
-        <v>115509</v>
+        <v>3364</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>347</v>
+        <v>287</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="M25" s="7">
-        <v>343</v>
+        <v>6</v>
       </c>
       <c r="N25" s="7">
-        <v>242159</v>
+        <v>4945</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>350</v>
+        <v>207</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>351</v>
+        <v>321</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5369,49 +5891,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>276</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>202492</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>353</v>
+        <v>46</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>354</v>
+        <v>55</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>355</v>
+        <v>124</v>
       </c>
       <c r="H26" s="7">
-        <v>286</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>201147</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>356</v>
+        <v>46</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>357</v>
+        <v>55</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>358</v>
+        <v>95</v>
       </c>
       <c r="M26" s="7">
-        <v>562</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>403639</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>359</v>
+        <v>46</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>360</v>
+        <v>55</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>361</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5420,55 +5942,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>235</v>
+      </c>
+      <c r="D27" s="7">
+        <v>174048</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
+        <v>241</v>
+      </c>
+      <c r="I27" s="7">
+        <v>169515</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M27" s="7">
+        <v>476</v>
+      </c>
+      <c r="N27" s="7">
+        <v>343563</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>276</v>
+      </c>
+      <c r="D28" s="7">
+        <v>202492</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="H28" s="7">
+        <v>286</v>
+      </c>
+      <c r="I28" s="7">
+        <v>201147</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="M28" s="7">
+        <v>562</v>
+      </c>
+      <c r="N28" s="7">
+        <v>403639</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>174</v>
+      </c>
+      <c r="D29" s="7">
+        <v>126650</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="H29" s="7">
+        <v>169</v>
+      </c>
+      <c r="I29" s="7">
+        <v>115509</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="M29" s="7">
+        <v>343</v>
+      </c>
+      <c r="N29" s="7">
+        <v>242159</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>37</v>
+      </c>
+      <c r="D30" s="7">
+        <v>25795</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="H30" s="7">
+        <v>45</v>
+      </c>
+      <c r="I30" s="7">
+        <v>32407</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="M30" s="7">
+        <v>82</v>
+      </c>
+      <c r="N30" s="7">
+        <v>58202</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>5</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3538</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="H31" s="7">
+        <v>6</v>
+      </c>
+      <c r="I31" s="7">
+        <v>4911</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="M31" s="7">
+        <v>11</v>
+      </c>
+      <c r="N31" s="7">
+        <v>8449</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7">
+        <v>790</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7">
+        <v>724</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="M32" s="7">
+        <v>2</v>
+      </c>
+      <c r="N32" s="7">
+        <v>1513</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>493</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>359264</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>507</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>354698</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="7">
         <v>1000</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>713962</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>55</v>
+      <c r="O33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07A16-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A16-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C62D3F3C-9F04-4D09-B145-E64A0A846856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFBF1196-E889-4AD5-8CAA-0024D5C54CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A38B04B1-9881-4AA1-90FC-0B35952E89CB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{99A8DCBF-A7F2-4A9B-8CBD-58E1E9A896DD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="359">
   <si>
     <t>Menores según frecuencia de ayudarse entre los amigos en 2007 (Tasa respuesta: 47,1%)</t>
   </si>
@@ -97,1015 +97,1024 @@
     <t>43,49%</t>
   </si>
   <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
   </si>
   <si>
     <t>46,4%</t>
   </si>
   <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
   </si>
   <si>
     <t>44,87%</t>
   </si>
   <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
     <t>39,89%</t>
   </si>
   <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de ayudarse entre los amigos en 2012 (Tasa respuesta: 44,69%)</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de ayudarse entre los amigos en 2016 (Tasa respuesta: 47,04%)</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
   </si>
   <si>
     <t>31,06%</t>
   </si>
   <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
   </si>
   <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de ayudarse entre los amigos en 2012 (Tasa respuesta: 44,69%)</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
   </si>
   <si>
     <t>36,37%</t>
   </si>
   <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de ayudarse entre los amigos en 2015 (Tasa respuesta: 47,04%)</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
     <t>33,92%</t>
   </si>
   <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
   </si>
   <si>
     <t>7,18%</t>
   </si>
   <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
   </si>
   <si>
     <t>9,14%</t>
   </si>
   <si>
-    <t>11,94%</t>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
   </si>
   <si>
     <t>8,15%</t>
   </si>
   <si>
-    <t>9,94%</t>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
   </si>
   <si>
     <t>0,98%</t>
   </si>
   <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
   </si>
   <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
   </si>
 </sst>
 </file>
@@ -1517,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DD3189-9EC5-4BE5-B2EC-D1681FA28A90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E4652E-41FA-46F6-B822-E64B96D22569}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2526,10 +2535,10 @@
         <v>67</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,13 +2553,13 @@
         <v>83149</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H23" s="7">
         <v>112</v>
@@ -2559,7 +2568,7 @@
         <v>77115</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>73</v>
@@ -2858,7 +2867,7 @@
         <v>106</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="H29" s="7">
         <v>184</v>
@@ -2867,13 +2876,13 @@
         <v>125567</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M29" s="7">
         <v>401</v>
@@ -2882,13 +2891,13 @@
         <v>270974</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2903,13 +2912,13 @@
         <v>32374</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H30" s="7">
         <v>54</v>
@@ -2918,13 +2927,13 @@
         <v>36209</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M30" s="7">
         <v>103</v>
@@ -2933,13 +2942,13 @@
         <v>68583</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2954,13 +2963,13 @@
         <v>487</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -2969,13 +2978,13 @@
         <v>2604</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M31" s="7">
         <v>5</v>
@@ -2984,13 +2993,13 @@
         <v>3091</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,13 +3014,13 @@
         <v>647</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -3020,13 +3029,13 @@
         <v>632</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -3035,13 +3044,13 @@
         <v>1280</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,7 +3106,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3117,7 +3126,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F760528-C939-4D0F-A6CE-E6B85547CDE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2205EDA4-6B2B-4D38-BA62-24053DA5C921}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3134,7 +3143,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3785,13 +3794,13 @@
         <v>77255</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H16" s="7">
         <v>109</v>
@@ -3800,13 +3809,13 @@
         <v>77061</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M16" s="7">
         <v>224</v>
@@ -3815,13 +3824,13 @@
         <v>154316</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,13 +3845,13 @@
         <v>58687</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H17" s="7">
         <v>95</v>
@@ -3851,13 +3860,13 @@
         <v>66960</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="M17" s="7">
         <v>175</v>
@@ -3866,13 +3875,13 @@
         <v>125648</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3887,13 +3896,13 @@
         <v>18114</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H18" s="7">
         <v>12</v>
@@ -3902,13 +3911,13 @@
         <v>8223</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M18" s="7">
         <v>38</v>
@@ -3917,13 +3926,13 @@
         <v>26336</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3938,13 +3947,13 @@
         <v>1927</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -3953,13 +3962,13 @@
         <v>1193</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -3968,13 +3977,13 @@
         <v>3120</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>163</v>
+        <v>45</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>167</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3989,13 +3998,13 @@
         <v>691</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -4004,13 +4013,13 @@
         <v>1359</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -4019,13 +4028,13 @@
         <v>2050</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>173</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,7 +4159,7 @@
         <v>184</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>185</v>
+        <v>105</v>
       </c>
       <c r="H23" s="7">
         <v>93</v>
@@ -4159,13 +4168,13 @@
         <v>64277</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M23" s="7">
         <v>186</v>
@@ -4174,13 +4183,13 @@
         <v>127389</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,13 +4204,13 @@
         <v>10134</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H24" s="7">
         <v>18</v>
@@ -4210,13 +4219,13 @@
         <v>12670</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M24" s="7">
         <v>33</v>
@@ -4225,13 +4234,13 @@
         <v>22804</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,13 +4255,13 @@
         <v>2379</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>92</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -4261,13 +4270,13 @@
         <v>3132</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>202</v>
+        <v>127</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -4276,13 +4285,13 @@
         <v>5511</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>205</v>
+        <v>50</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,7 +4312,7 @@
         <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>47</v>
+        <v>204</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -4312,13 +4321,13 @@
         <v>2401</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -4327,13 +4336,13 @@
         <v>3008</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4401,13 +4410,13 @@
         <v>175523</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H28" s="7">
         <v>227</v>
@@ -4416,13 +4425,13 @@
         <v>160985</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M28" s="7">
         <v>487</v>
@@ -4431,13 +4440,13 @@
         <v>336508</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,7 +4461,7 @@
         <v>121799</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>34</v>
+        <v>219</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>220</v>
@@ -4575,7 +4584,7 @@
         <v>241</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>158</v>
+        <v>242</v>
       </c>
       <c r="M31" s="7">
         <v>12</v>
@@ -4584,10 +4593,10 @@
         <v>8631</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>243</v>
+        <v>50</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>244</v>
@@ -4623,10 +4632,10 @@
         <v>247</v>
       </c>
       <c r="K32" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M32" s="7">
         <v>7</v>
@@ -4635,13 +4644,13 @@
         <v>5058</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4697,7 +4706,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -4717,7 +4726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAAE256E-A1C2-4F7D-A1E4-40F7AEE7EED1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D4CD1C-034B-468C-A88D-854B408E8628}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4734,7 +4743,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5385,13 +5394,13 @@
         <v>106534</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H16" s="7">
         <v>163</v>
@@ -5400,13 +5409,13 @@
         <v>113275</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M16" s="7">
         <v>310</v>
@@ -5415,13 +5424,13 @@
         <v>219809</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5436,13 +5445,13 @@
         <v>61298</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H17" s="7">
         <v>78</v>
@@ -5451,13 +5460,13 @@
         <v>53731</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M17" s="7">
         <v>164</v>
@@ -5466,7 +5475,7 @@
         <v>115029</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>31</v>
+        <v>268</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>269</v>
@@ -5541,10 +5550,10 @@
         <v>280</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>281</v>
+        <v>172</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -5571,10 +5580,10 @@
         <v>284</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>52</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5589,13 +5598,13 @@
         <v>790</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>285</v>
+        <v>206</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -5610,7 +5619,7 @@
         <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5619,13 +5628,13 @@
         <v>1513</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5693,13 +5702,13 @@
         <v>95959</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H22" s="7">
         <v>123</v>
@@ -5708,13 +5717,13 @@
         <v>87872</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M22" s="7">
         <v>252</v>
@@ -5723,13 +5732,13 @@
         <v>183831</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5744,13 +5753,13 @@
         <v>65352</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="H23" s="7">
         <v>91</v>
@@ -5759,13 +5768,13 @@
         <v>61778</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="M23" s="7">
         <v>179</v>
@@ -5774,13 +5783,13 @@
         <v>127131</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5795,13 +5804,13 @@
         <v>11155</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="H24" s="7">
         <v>23</v>
@@ -5810,13 +5819,13 @@
         <v>16501</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="M24" s="7">
         <v>39</v>
@@ -5825,13 +5834,13 @@
         <v>27656</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5846,13 +5855,13 @@
         <v>1582</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -5861,13 +5870,13 @@
         <v>3364</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>319</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>320</v>
+        <v>159</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -5876,13 +5885,13 @@
         <v>4945</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5903,7 +5912,7 @@
         <v>55</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5918,7 +5927,7 @@
         <v>55</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>95</v>
+        <v>322</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -6121,10 +6130,10 @@
         <v>345</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>197</v>
+        <v>346</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M30" s="7">
         <v>82</v>
@@ -6133,13 +6142,13 @@
         <v>58202</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>82</v>
+        <v>349</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6154,13 +6163,13 @@
         <v>3538</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H31" s="7">
         <v>6</v>
@@ -6169,13 +6178,13 @@
         <v>4911</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>351</v>
+        <v>58</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>283</v>
+        <v>354</v>
       </c>
       <c r="M31" s="7">
         <v>11</v>
@@ -6184,13 +6193,13 @@
         <v>8449</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>87</v>
+        <v>319</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6205,13 +6214,13 @@
         <v>790</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>355</v>
+        <v>134</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -6220,13 +6229,13 @@
         <v>724</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>246</v>
+        <v>357</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -6235,13 +6244,13 @@
         <v>1513</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>243</v>
+        <v>358</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6297,7 +6306,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A16-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A16-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFBF1196-E889-4AD5-8CAA-0024D5C54CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{109D7B79-A91B-4D5C-AB0A-C4A3B968A0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{99A8DCBF-A7F2-4A9B-8CBD-58E1E9A896DD}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{2B5EBF00-7347-482B-BF77-45550F824211}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -43,10 +43,10 @@
     <t>Menores según frecuencia de ayudarse entre los amigos en 2007 (Tasa respuesta: 47,1%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -94,1027 +94,1027 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
     <t>43,49%</t>
   </si>
   <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
   </si>
   <si>
     <t>44,87%</t>
   </si>
   <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
   </si>
   <si>
     <t>44,42%</t>
   </si>
   <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
   </si>
   <si>
     <t>41,55%</t>
   </si>
   <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
   </si>
   <si>
     <t>11,29%</t>
   </si>
   <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
   </si>
   <si>
     <t>12,63%</t>
   </si>
   <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
   </si>
   <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>0,0%</t>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de ayudarse entre los amigos en 2012 (Tasa respuesta: 44,69%)</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
   </si>
   <si>
     <t>1,76%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de ayudarse entre los amigos en 2016 (Tasa respuesta: 47,04%)</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
   </si>
   <si>
     <t>1,38%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
   </si>
   <si>
     <t>2,15%</t>
   </si>
   <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de ayudarse entre los amigos en 2012 (Tasa respuesta: 44,69%)</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de ayudarse entre los amigos en 2016 (Tasa respuesta: 47,04%)</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
+    <t>1,03%</t>
   </si>
 </sst>
 </file>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E4652E-41FA-46F6-B822-E64B96D22569}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780B6D92-48F1-48C7-A3A7-9991FE1F6B3F}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2188,10 +2188,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D16" s="7">
-        <v>60959</v>
+        <v>58591</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -2203,10 +2203,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I16" s="7">
-        <v>58591</v>
+        <v>60959</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -2239,10 +2239,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="D17" s="7">
-        <v>62257</v>
+        <v>48452</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>27</v>
@@ -2254,10 +2254,10 @@
         <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="I17" s="7">
-        <v>48452</v>
+        <v>62257</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>30</v>
@@ -2290,10 +2290,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D18" s="7">
-        <v>15820</v>
+        <v>17831</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>36</v>
@@ -2305,10 +2305,10 @@
         <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I18" s="7">
-        <v>17831</v>
+        <v>15820</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>39</v>
@@ -2341,10 +2341,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>487</v>
+        <v>1387</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>45</v>
@@ -2356,10 +2356,10 @@
         <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>1387</v>
+        <v>487</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>48</v>
@@ -2392,31 +2392,31 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>647</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>54</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>647</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>56</v>
@@ -2443,25 +2443,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>189</v>
+      </c>
+      <c r="D21" s="7">
+        <v>126262</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="7">
         <v>210</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>140171</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="7">
-        <v>189</v>
-      </c>
-      <c r="I21" s="7">
-        <v>126262</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>59</v>
@@ -2496,10 +2496,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="D22" s="7">
-        <v>104369</v>
+        <v>95962</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>61</v>
@@ -2511,10 +2511,10 @@
         <v>63</v>
       </c>
       <c r="H22" s="7">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="I22" s="7">
-        <v>95962</v>
+        <v>104369</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>64</v>
@@ -2535,10 +2535,10 @@
         <v>67</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2547,34 +2547,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>112</v>
+      </c>
+      <c r="D23" s="7">
+        <v>77115</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="7">
         <v>125</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>83149</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H23" s="7">
-        <v>112</v>
-      </c>
-      <c r="I23" s="7">
-        <v>77115</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M23" s="7">
         <v>237</v>
@@ -2583,13 +2583,13 @@
         <v>160264</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2598,34 +2598,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>27</v>
+      </c>
+      <c r="D24" s="7">
+        <v>18378</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="7">
         <v>25</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>16554</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H24" s="7">
-        <v>27</v>
-      </c>
-      <c r="I24" s="7">
-        <v>18378</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M24" s="7">
         <v>52</v>
@@ -2634,13 +2634,13 @@
         <v>34932</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2649,34 +2649,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>1217</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="G25" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H25" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>1217</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -2685,13 +2685,13 @@
         <v>1217</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2700,34 +2700,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>632</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H26" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>632</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2736,13 +2736,13 @@
         <v>632</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,25 +2751,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>285</v>
+      </c>
+      <c r="D27" s="7">
+        <v>193304</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
         <v>307</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>204072</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
-        <v>285</v>
-      </c>
-      <c r="I27" s="7">
-        <v>193304</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>59</v>
@@ -2804,34 +2804,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>231</v>
+      </c>
+      <c r="D28" s="7">
+        <v>154553</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H28" s="7">
         <v>249</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>165328</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H28" s="7">
-        <v>231</v>
-      </c>
-      <c r="I28" s="7">
-        <v>154553</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M28" s="7">
         <v>480</v>
@@ -2840,13 +2840,13 @@
         <v>319882</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,25 +2855,25 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>184</v>
+      </c>
+      <c r="D29" s="7">
+        <v>125567</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="7">
         <v>217</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>145406</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H29" s="7">
-        <v>184</v>
-      </c>
-      <c r="I29" s="7">
-        <v>125567</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>108</v>
@@ -2906,10 +2906,10 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D30" s="7">
-        <v>32374</v>
+        <v>36209</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>114</v>
@@ -2921,10 +2921,10 @@
         <v>116</v>
       </c>
       <c r="H30" s="7">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I30" s="7">
-        <v>36209</v>
+        <v>32374</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>117</v>
@@ -2957,31 +2957,31 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D31" s="7">
-        <v>487</v>
+        <v>2604</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>123</v>
       </c>
       <c r="F31" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H31" s="7">
+        <v>1</v>
+      </c>
+      <c r="I31" s="7">
+        <v>487</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H31" s="7">
-        <v>4</v>
-      </c>
-      <c r="I31" s="7">
-        <v>2604</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>127</v>
@@ -2996,10 +2996,10 @@
         <v>128</v>
       </c>
       <c r="P31" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,31 +3011,31 @@
         <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>647</v>
+        <v>632</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
       </c>
       <c r="I32" s="7">
-        <v>632</v>
+        <v>647</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -3050,7 +3050,7 @@
         <v>46</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3059,25 +3059,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>474</v>
+      </c>
+      <c r="D33" s="7">
+        <v>319566</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>517</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>344243</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="7">
-        <v>474</v>
-      </c>
-      <c r="I33" s="7">
-        <v>319566</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>59</v>
@@ -3106,7 +3106,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3126,7 +3126,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2205EDA4-6B2B-4D38-BA62-24053DA5C921}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586C37E1-5CE7-4BEE-82D0-B10FEA23DEC4}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3143,7 +3143,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3788,34 +3788,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>109</v>
+      </c>
+      <c r="D16" s="7">
+        <v>77061</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="7">
         <v>115</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>77255</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="H16" s="7">
-        <v>109</v>
-      </c>
-      <c r="I16" s="7">
-        <v>77061</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M16" s="7">
         <v>224</v>
@@ -3824,13 +3824,13 @@
         <v>154316</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3839,34 +3839,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>95</v>
+      </c>
+      <c r="D17" s="7">
+        <v>66960</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H17" s="7">
         <v>80</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>58687</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="H17" s="7">
-        <v>95</v>
-      </c>
-      <c r="I17" s="7">
-        <v>66960</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M17" s="7">
         <v>175</v>
@@ -3875,13 +3875,13 @@
         <v>125648</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3890,34 +3890,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>12</v>
+      </c>
+      <c r="D18" s="7">
+        <v>8223</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H18" s="7">
         <v>26</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>18114</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="H18" s="7">
-        <v>12</v>
-      </c>
-      <c r="I18" s="7">
-        <v>8223</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M18" s="7">
         <v>38</v>
@@ -3926,13 +3926,13 @@
         <v>26336</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3941,34 +3941,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>2</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1193</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H19" s="7">
         <v>3</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>1927</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="J19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1193</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -3977,13 +3977,13 @@
         <v>3120</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>54</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,34 +3992,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>691</v>
+        <v>1359</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>1359</v>
+        <v>691</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -4028,13 +4028,13 @@
         <v>2050</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>47</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,25 +4043,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>220</v>
+      </c>
+      <c r="D21" s="7">
+        <v>154796</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="7">
         <v>225</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>156674</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="7">
-        <v>220</v>
-      </c>
-      <c r="I21" s="7">
-        <v>154796</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>59</v>
@@ -4096,34 +4096,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>118</v>
+      </c>
+      <c r="D22" s="7">
+        <v>83924</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H22" s="7">
         <v>145</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>98268</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H22" s="7">
-        <v>118</v>
-      </c>
-      <c r="I22" s="7">
-        <v>83924</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M22" s="7">
         <v>263</v>
@@ -4132,13 +4132,13 @@
         <v>182192</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,22 +4150,22 @@
         <v>93</v>
       </c>
       <c r="D23" s="7">
-        <v>63112</v>
+        <v>64277</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H23" s="7">
         <v>93</v>
       </c>
       <c r="I23" s="7">
-        <v>64277</v>
+        <v>63112</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>185</v>
@@ -4198,34 +4198,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D24" s="7">
-        <v>10134</v>
+        <v>12670</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>191</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>49</v>
+        <v>192</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H24" s="7">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I24" s="7">
-        <v>12670</v>
+        <v>10134</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M24" s="7">
         <v>33</v>
@@ -4234,13 +4234,13 @@
         <v>22804</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,34 +4249,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>4</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3132</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H25" s="7">
         <v>3</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>2379</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H25" s="7">
-        <v>4</v>
-      </c>
-      <c r="I25" s="7">
-        <v>3132</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -4285,13 +4285,13 @@
         <v>5511</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>50</v>
+        <v>205</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,34 +4300,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>3</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2401</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H26" s="7">
         <v>1</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>607</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="J26" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="H26" s="7">
-        <v>3</v>
-      </c>
-      <c r="I26" s="7">
-        <v>2401</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>206</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -4336,13 +4336,13 @@
         <v>3008</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>209</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4351,25 +4351,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>236</v>
+      </c>
+      <c r="D27" s="7">
+        <v>166404</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
         <v>257</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>174500</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
-        <v>236</v>
-      </c>
-      <c r="I27" s="7">
-        <v>166404</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>59</v>
@@ -4404,34 +4404,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>227</v>
+      </c>
+      <c r="D28" s="7">
+        <v>160985</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H28" s="7">
         <v>260</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>175523</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H28" s="7">
-        <v>227</v>
-      </c>
-      <c r="I28" s="7">
-        <v>160985</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>214</v>
+        <v>100</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M28" s="7">
         <v>487</v>
@@ -4440,13 +4440,13 @@
         <v>336508</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4455,25 +4455,25 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>188</v>
+      </c>
+      <c r="D29" s="7">
+        <v>131237</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" s="7">
         <v>173</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>121799</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H29" s="7">
-        <v>188</v>
-      </c>
-      <c r="I29" s="7">
-        <v>131237</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>222</v>
@@ -4506,10 +4506,10 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D30" s="7">
-        <v>28247</v>
+        <v>20893</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>228</v>
@@ -4521,10 +4521,10 @@
         <v>230</v>
       </c>
       <c r="H30" s="7">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I30" s="7">
-        <v>20893</v>
+        <v>28247</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>231</v>
@@ -4560,7 +4560,7 @@
         <v>6</v>
       </c>
       <c r="D31" s="7">
-        <v>4306</v>
+        <v>4325</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>237</v>
@@ -4575,16 +4575,16 @@
         <v>6</v>
       </c>
       <c r="I31" s="7">
-        <v>4325</v>
+        <v>4306</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>240</v>
       </c>
       <c r="K31" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M31" s="7">
         <v>12</v>
@@ -4593,10 +4593,10 @@
         <v>8631</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>244</v>
@@ -4608,34 +4608,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" s="7">
-        <v>1298</v>
+        <v>3760</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>245</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1298</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="H32" s="7">
-        <v>5</v>
-      </c>
-      <c r="I32" s="7">
-        <v>3760</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>206</v>
-      </c>
       <c r="L32" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M32" s="7">
         <v>7</v>
@@ -4644,13 +4644,13 @@
         <v>5058</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4659,25 +4659,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>456</v>
+      </c>
+      <c r="D33" s="7">
+        <v>321200</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>482</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>331174</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="7">
-        <v>456</v>
-      </c>
-      <c r="I33" s="7">
-        <v>321200</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>59</v>
@@ -4706,7 +4706,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -4726,7 +4726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D4CD1C-034B-468C-A88D-854B408E8628}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A093F643-4E58-4A98-AD4E-81D7DC600FC1}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4743,7 +4743,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5388,34 +5388,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>163</v>
+      </c>
+      <c r="D16" s="7">
+        <v>113275</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H16" s="7">
         <v>147</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>106534</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="H16" s="7">
-        <v>163</v>
-      </c>
-      <c r="I16" s="7">
-        <v>113275</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M16" s="7">
         <v>310</v>
@@ -5424,10 +5424,10 @@
         <v>219809</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>261</v>
@@ -5439,10 +5439,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D17" s="7">
-        <v>61298</v>
+        <v>53731</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>262</v>
@@ -5454,10 +5454,10 @@
         <v>264</v>
       </c>
       <c r="H17" s="7">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I17" s="7">
-        <v>53731</v>
+        <v>61298</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>265</v>
@@ -5490,10 +5490,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D18" s="7">
-        <v>14640</v>
+        <v>15906</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>271</v>
@@ -5505,10 +5505,10 @@
         <v>273</v>
       </c>
       <c r="H18" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I18" s="7">
-        <v>15906</v>
+        <v>14640</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>274</v>
@@ -5541,31 +5541,31 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>1956</v>
+        <v>1547</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>280</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H19" s="7">
+        <v>3</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1956</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1547</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>283</v>
@@ -5580,10 +5580,10 @@
         <v>284</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>244</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5595,31 +5595,31 @@
         <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>790</v>
+        <v>724</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>206</v>
+        <v>248</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>285</v>
+        <v>244</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>724</v>
+        <v>790</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5628,13 +5628,13 @@
         <v>1513</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5643,25 +5643,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>266</v>
+      </c>
+      <c r="D21" s="7">
+        <v>185183</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="7">
         <v>258</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>185217</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="7">
-        <v>266</v>
-      </c>
-      <c r="I21" s="7">
-        <v>185183</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>59</v>
@@ -5696,10 +5696,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D22" s="7">
-        <v>95959</v>
+        <v>87872</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>289</v>
@@ -5711,19 +5711,19 @@
         <v>291</v>
       </c>
       <c r="H22" s="7">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I22" s="7">
-        <v>87872</v>
+        <v>95959</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>292</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M22" s="7">
         <v>252</v>
@@ -5732,13 +5732,13 @@
         <v>183831</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5747,34 +5747,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>91</v>
+      </c>
+      <c r="D23" s="7">
+        <v>61778</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="H23" s="7">
         <v>88</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>65352</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="H23" s="7">
-        <v>91</v>
-      </c>
-      <c r="I23" s="7">
-        <v>61778</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M23" s="7">
         <v>179</v>
@@ -5783,13 +5783,13 @@
         <v>127131</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5798,34 +5798,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>23</v>
+      </c>
+      <c r="D24" s="7">
+        <v>16501</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H24" s="7">
         <v>16</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>11155</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="H24" s="7">
-        <v>23</v>
-      </c>
-      <c r="I24" s="7">
-        <v>16501</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="M24" s="7">
         <v>39</v>
@@ -5834,13 +5834,13 @@
         <v>27656</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5849,34 +5849,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>1582</v>
+        <v>3364</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>317</v>
       </c>
       <c r="H25" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>3364</v>
+        <v>1582</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>318</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -5885,7 +5885,7 @@
         <v>4945</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>320</v>
@@ -5909,10 +5909,10 @@
         <v>46</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>125</v>
+        <v>322</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5924,10 +5924,10 @@
         <v>46</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>322</v>
+        <v>123</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5939,7 +5939,7 @@
         <v>46</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>323</v>
@@ -5951,25 +5951,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>241</v>
+      </c>
+      <c r="D27" s="7">
+        <v>169515</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
         <v>235</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>174048</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
-        <v>241</v>
-      </c>
-      <c r="I27" s="7">
-        <v>169515</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>59</v>
@@ -6004,10 +6004,10 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="D28" s="7">
-        <v>202492</v>
+        <v>201147</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>324</v>
@@ -6019,10 +6019,10 @@
         <v>326</v>
       </c>
       <c r="H28" s="7">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="I28" s="7">
-        <v>201147</v>
+        <v>202492</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>327</v>
@@ -6055,10 +6055,10 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D29" s="7">
-        <v>126650</v>
+        <v>115509</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>333</v>
@@ -6070,10 +6070,10 @@
         <v>335</v>
       </c>
       <c r="H29" s="7">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="I29" s="7">
-        <v>115509</v>
+        <v>126650</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>336</v>
@@ -6106,10 +6106,10 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D30" s="7">
-        <v>25795</v>
+        <v>32407</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>342</v>
@@ -6121,10 +6121,10 @@
         <v>344</v>
       </c>
       <c r="H30" s="7">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I30" s="7">
-        <v>32407</v>
+        <v>25795</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>345</v>
@@ -6157,34 +6157,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D31" s="7">
-        <v>3538</v>
+        <v>4911</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>351</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>90</v>
+        <v>352</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H31" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I31" s="7">
-        <v>4911</v>
+        <v>3538</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>58</v>
+        <v>354</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>353</v>
+        <v>164</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>354</v>
+        <v>170</v>
       </c>
       <c r="M31" s="7">
         <v>11</v>
@@ -6196,10 +6196,10 @@
         <v>355</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6211,31 +6211,31 @@
         <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>790</v>
+        <v>724</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>208</v>
+        <v>130</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
       </c>
       <c r="I32" s="7">
-        <v>724</v>
+        <v>790</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>133</v>
+        <v>211</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -6244,13 +6244,13 @@
         <v>1513</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>358</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6259,25 +6259,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>507</v>
+      </c>
+      <c r="D33" s="7">
+        <v>354698</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>493</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>359264</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="7">
-        <v>507</v>
-      </c>
-      <c r="I33" s="7">
-        <v>354698</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>59</v>
@@ -6306,7 +6306,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
